--- a/biology/Histoire de la zoologie et de la botanique/Thomas_S._Ray/Thomas_S._Ray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_S._Ray/Thomas_S._Ray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas S. Ray (connu aussi sous le diminutif Tom Ray), né en 1954[1], est un écologue qui a créé et développé le projet Tierra, une simulation informatique de la vie artificielle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas S. Ray (connu aussi sous le diminutif Tom Ray), né en 1954, est un écologue qui a créé et développé le projet Tierra, une simulation informatique de la vie artificielle.
 En 1975, lui et Donald R. Strong furent les premiers à proposer une théorie du skototropisme dans un article du journal Science (190: 804-806), travail qu'il a ensuite approfondi dans son mémoire de fin d'études à l'université de Floride. Ce mémoire a lui-même été approfondi dans sa thèse de doctorat effectuée à l'université Harvard.
 Il est actuellement professeur de zoologie et professeur adjoint d'informatique à l'université de l'Oklahoma.
 </t>
@@ -513,7 +525,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son travail original est une source d'inspiration pour certains auteurs de science-fiction. En particulier, Dan Simmons lui fait référence explicitement dans son cycle de romans Les Cantos d'Hypérion. Il le cite aussi dans L'Éveil d'Endymion sous le nom de Tom Ray.
 </t>
